--- a/data/citrate_thiamine_merged/cfus_ct.xlsx
+++ b/data/citrate_thiamine_merged/cfus_ct.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="139">
   <si>
     <t xml:space="preserve">Experiment: </t>
   </si>
@@ -347,6 +347,96 @@
   </si>
   <si>
     <t xml:space="preserve">10|16|15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7|6|4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6|5|6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8|13|9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12|10|16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30|24|24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23|22|14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27|11|24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10|7|6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14|27|19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7|9|13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17|17|10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34|29|27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14|17|13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21|12|12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14|12|14|13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18|22|22|23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19|17|11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10|9|6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24|27|28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13|14|14|15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20|31|18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17|15|19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5|14|18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16|11|9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5|10|12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18|15|11|9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17|14|17|20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16|18|17|18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10|15|9|6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16|13|11|15</t>
   </si>
 </sst>
 </file>
@@ -481,10 +571,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI102"/>
+  <dimension ref="A1:AMI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D102" activeCellId="0" sqref="D102"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D121" activeCellId="0" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6050,7 +6140,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>475.87</v>
+        <v>452.9</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>-5</v>
@@ -6064,7 +6154,7 @@
         <v>20</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>475.87</v>
+        <v>452.9</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>-5</v>
@@ -6078,7 +6168,7 @@
         <v>8</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>475.87</v>
+        <v>452.9</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>-5</v>
@@ -6092,7 +6182,7 @@
         <v>22</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>475.87</v>
+        <v>452.9</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>-5</v>
@@ -6106,7 +6196,7 @@
         <v>10</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>475.87</v>
+        <v>452.9</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>-5</v>
@@ -6120,7 +6210,7 @@
         <v>12</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>475.87</v>
+        <v>452.9</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>-5</v>
@@ -6129,6 +6219,427 @@
         <v>108</v>
       </c>
     </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>475.87</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>475.87</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>475.87</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>475.87</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>475.87</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>475.87</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>501.81</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>501.81</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>501.81</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>501.81</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>501.81</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>524.35</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>524.35</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>524.35</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>524.35</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>524.35</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>552.21</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>552.21</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>552.21</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>552.21</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>552.21</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>575.26</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>575.26</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>575.26</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>575.26</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>575.26</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>597.83</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>597.83</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>619</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>619</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
